--- a/Workshop details.xlsx
+++ b/Workshop details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202474661\Desktop\Dashboard projects\Dashboard Projects 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC8270-2C30-4069-B1DB-2A18FA8699A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519D272F-F058-421E-A267-7A682684E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E98064BC-54B1-4DC2-9FDD-291F7646CFF6}"/>
   </bookViews>
@@ -7979,9 +7979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BCDDDC-AF5F-46B9-909D-A383A6369875}">
   <dimension ref="A1:T565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -42782,11 +42780,11 @@
       <c r="R561" s="4" t="s">
         <v>2465</v>
       </c>
-      <c r="S561" s="3">
-        <v>10.222167000000001</v>
-      </c>
-      <c r="T561" s="3">
-        <v>76.195611</v>
+      <c r="S561" s="6">
+        <v>11.614064000000001</v>
+      </c>
+      <c r="T561" s="6">
+        <v>78.575546000000003</v>
       </c>
     </row>
     <row r="562" spans="1:20" x14ac:dyDescent="0.35">

--- a/Workshop details.xlsx
+++ b/Workshop details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202474661\Desktop\Dashboard projects\Dashboard Projects 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519D272F-F058-421E-A267-7A682684E1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBD0A5-8CC7-44F7-8763-4EB00A7F67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E98064BC-54B1-4DC2-9FDD-291F7646CFF6}"/>
   </bookViews>
@@ -7979,7 +7979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BCDDDC-AF5F-46B9-909D-A383A6369875}">
   <dimension ref="A1:T565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A565" sqref="A565"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Workshop details.xlsx
+++ b/Workshop details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202474661\Desktop\Dashboard projects\Dashboard Projects 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBD0A5-8CC7-44F7-8763-4EB00A7F67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76080C55-AF1B-4AE8-B628-B6F3AFC0E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E98064BC-54B1-4DC2-9FDD-291F7646CFF6}"/>
   </bookViews>
@@ -7979,9 +7979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BCDDDC-AF5F-46B9-909D-A383A6369875}">
   <dimension ref="A1:T565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A565" sqref="A565"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
